--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Il1f5-Il1rl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Neutrophils</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Il1f5</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,31 +528,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.02506066666666667</v>
+        <v>0.1520806666666667</v>
       </c>
       <c r="H2">
-        <v>0.075182</v>
+        <v>0.456242</v>
       </c>
       <c r="I2">
-        <v>0.005556484732231195</v>
+        <v>0.03068071770669231</v>
       </c>
       <c r="J2">
-        <v>0.005556484732231196</v>
+        <v>0.0306807177066923</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.572473333333333</v>
+        <v>1.345575333333333</v>
       </c>
       <c r="N2">
-        <v>4.71742</v>
+        <v>4.036726</v>
       </c>
       <c r="O2">
-        <v>0.0623955221013184</v>
+        <v>0.05720258880468643</v>
       </c>
       <c r="P2">
-        <v>0.06239552210131842</v>
+        <v>0.05720258880468642</v>
       </c>
       <c r="Q2">
-        <v>0.03940723004888888</v>
+        <v>0.2046359937435556</v>
       </c>
       <c r="R2">
-        <v>0.35466507044</v>
+        <v>1.841723943692</v>
       </c>
       <c r="S2">
-        <v>0.0003466997659155698</v>
+        <v>0.001755016479208582</v>
       </c>
       <c r="T2">
-        <v>0.00034669976591557</v>
+        <v>0.001755016479208582</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,31 +590,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.02506066666666667</v>
+        <v>0.1520806666666667</v>
       </c>
       <c r="H3">
-        <v>0.075182</v>
+        <v>0.456242</v>
       </c>
       <c r="I3">
-        <v>0.005556484732231195</v>
+        <v>0.03068071770669231</v>
       </c>
       <c r="J3">
-        <v>0.005556484732231196</v>
+        <v>0.0306807177066923</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>49.84550400000001</v>
       </c>
       <c r="O3">
-        <v>0.6592875441413644</v>
+        <v>0.7063377274242425</v>
       </c>
       <c r="P3">
-        <v>0.6592875441413647</v>
+        <v>0.7063377274242425</v>
       </c>
       <c r="Q3">
-        <v>0.4163871868586667</v>
+        <v>2.526845826218667</v>
       </c>
       <c r="R3">
-        <v>3.747484681728</v>
+        <v>22.741612435968</v>
       </c>
       <c r="S3">
-        <v>0.003663321173171692</v>
+        <v>0.02167094842068976</v>
       </c>
       <c r="T3">
-        <v>0.003663321173171694</v>
+        <v>0.02167094842068976</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,31 +652,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>20</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.02506066666666667</v>
+        <v>0.1520806666666667</v>
       </c>
       <c r="H4">
-        <v>0.075182</v>
+        <v>0.456242</v>
       </c>
       <c r="I4">
-        <v>0.005556484732231195</v>
+        <v>0.03068071770669231</v>
       </c>
       <c r="J4">
-        <v>0.005556484732231196</v>
+        <v>0.0306807177066923</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.354957666666667</v>
+        <v>0.472618</v>
       </c>
       <c r="N4">
-        <v>4.064873</v>
+        <v>1.417854</v>
       </c>
       <c r="O4">
-        <v>0.05376453084748706</v>
+        <v>0.02009175736650936</v>
       </c>
       <c r="P4">
-        <v>0.05376453084748708</v>
+        <v>0.02009175736650936</v>
       </c>
       <c r="Q4">
-        <v>0.03395614243177777</v>
+        <v>0.07187606051866667</v>
       </c>
       <c r="R4">
-        <v>0.3056052818859999</v>
+        <v>0.6468845446679999</v>
       </c>
       <c r="S4">
-        <v>0.000298741794789635</v>
+        <v>0.0006164295359932293</v>
       </c>
       <c r="T4">
-        <v>0.0002987417947896351</v>
+        <v>0.0006164295359932292</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,31 +714,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.02506066666666667</v>
+        <v>0.1520806666666667</v>
       </c>
       <c r="H5">
-        <v>0.075182</v>
+        <v>0.456242</v>
       </c>
       <c r="I5">
-        <v>0.005556484732231195</v>
+        <v>0.03068071770669231</v>
       </c>
       <c r="J5">
-        <v>0.005556484732231196</v>
+        <v>0.0306807177066923</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.414567333333333</v>
+        <v>1.403935</v>
       </c>
       <c r="N5">
-        <v>4.243702</v>
+        <v>4.211805</v>
       </c>
       <c r="O5">
-        <v>0.05612983408990701</v>
+        <v>0.05968355284468708</v>
       </c>
       <c r="P5">
-        <v>0.05612983408990703</v>
+        <v>0.05968355284468708</v>
       </c>
       <c r="Q5">
-        <v>0.03545000041822222</v>
+        <v>0.2135113707566667</v>
       </c>
       <c r="R5">
-        <v>0.319050003764</v>
+        <v>1.92160233681</v>
       </c>
       <c r="S5">
-        <v>0.0003118845661432384</v>
+        <v>0.001831134236560297</v>
       </c>
       <c r="T5">
-        <v>0.0003118845661432385</v>
+        <v>0.001831134236560297</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,31 +776,31 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.02506066666666667</v>
+        <v>0.1520806666666667</v>
       </c>
       <c r="H6">
-        <v>0.075182</v>
+        <v>0.456242</v>
       </c>
       <c r="I6">
-        <v>0.005556484732231195</v>
+        <v>0.03068071770669231</v>
       </c>
       <c r="J6">
-        <v>0.005556484732231196</v>
+        <v>0.0306807177066923</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.367415333333333</v>
+        <v>2.832734666666667</v>
       </c>
       <c r="N6">
-        <v>7.102246</v>
+        <v>8.498204000000001</v>
       </c>
       <c r="O6">
-        <v>0.09393870956200641</v>
+        <v>0.1204241429788253</v>
       </c>
       <c r="P6">
-        <v>0.09393870956200644</v>
+        <v>0.1204241429788253</v>
       </c>
       <c r="Q6">
-        <v>0.05932900653022222</v>
+        <v>0.4308041765964445</v>
       </c>
       <c r="R6">
-        <v>0.533961058772</v>
+        <v>3.877237589368</v>
       </c>
       <c r="S6">
-        <v>0.0005219690054467892</v>
+        <v>0.003694699135803691</v>
       </c>
       <c r="T6">
-        <v>0.0005219690054467895</v>
+        <v>0.00369469913580369</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,31 +838,31 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.02506066666666667</v>
+        <v>0.1520806666666667</v>
       </c>
       <c r="H7">
-        <v>0.075182</v>
+        <v>0.456242</v>
       </c>
       <c r="I7">
-        <v>0.005556484732231195</v>
+        <v>0.03068071770669231</v>
       </c>
       <c r="J7">
-        <v>0.005556484732231196</v>
+        <v>0.0306807177066923</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.87712</v>
+        <v>0.8529486666666667</v>
       </c>
       <c r="N7">
-        <v>5.63136</v>
+        <v>2.558846</v>
       </c>
       <c r="O7">
-        <v>0.07448385925791649</v>
+        <v>0.03626023058104926</v>
       </c>
       <c r="P7">
-        <v>0.07448385925791652</v>
+        <v>0.03626023058104925</v>
       </c>
       <c r="Q7">
-        <v>0.04704187861333333</v>
+        <v>0.1297170018591111</v>
       </c>
       <c r="R7">
-        <v>0.42337690752</v>
+        <v>1.167453016732</v>
       </c>
       <c r="S7">
-        <v>0.0004138684267642702</v>
+        <v>0.001112489898436744</v>
       </c>
       <c r="T7">
-        <v>0.0004138684267642704</v>
+        <v>0.001112489898436744</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,13 +900,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.485105</v>
+        <v>4.705090666666667</v>
       </c>
       <c r="H8">
-        <v>13.455315</v>
+        <v>14.115272</v>
       </c>
       <c r="I8">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341371</v>
       </c>
       <c r="J8">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341369</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.572473333333333</v>
+        <v>1.345575333333333</v>
       </c>
       <c r="N8">
-        <v>4.71742</v>
+        <v>4.036726</v>
       </c>
       <c r="O8">
-        <v>0.0623955221013184</v>
+        <v>0.05720258880468643</v>
       </c>
       <c r="P8">
-        <v>0.06239552210131842</v>
+        <v>0.05720258880468642</v>
       </c>
       <c r="Q8">
-        <v>7.052708009699999</v>
+        <v>6.331053942163556</v>
       </c>
       <c r="R8">
-        <v>63.47437208729999</v>
+        <v>56.979485479472</v>
       </c>
       <c r="S8">
-        <v>0.06204882233540283</v>
+        <v>0.0542969191098397</v>
       </c>
       <c r="T8">
-        <v>0.06204882233540285</v>
+        <v>0.05429691910983968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,13 +962,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.485105</v>
+        <v>4.705090666666667</v>
       </c>
       <c r="H9">
-        <v>13.455315</v>
+        <v>14.115272</v>
       </c>
       <c r="I9">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341371</v>
       </c>
       <c r="J9">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341369</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>49.84550400000001</v>
       </c>
       <c r="O9">
-        <v>0.6592875441413644</v>
+        <v>0.7063377274242425</v>
       </c>
       <c r="P9">
-        <v>0.6592875441413647</v>
+        <v>0.7063377274242425</v>
       </c>
       <c r="Q9">
-        <v>74.52077307264</v>
+        <v>78.17587188189867</v>
       </c>
       <c r="R9">
-        <v>670.68695765376</v>
+        <v>703.5828469370881</v>
       </c>
       <c r="S9">
-        <v>0.6556242229681927</v>
+        <v>0.6704585098610089</v>
       </c>
       <c r="T9">
-        <v>0.655624222968193</v>
+        <v>0.6704585098610089</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,10 +1024,10 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.485105</v>
+        <v>4.705090666666667</v>
       </c>
       <c r="H10">
-        <v>13.455315</v>
+        <v>14.115272</v>
       </c>
       <c r="I10">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341371</v>
       </c>
       <c r="J10">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341369</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.354957666666667</v>
+        <v>0.472618</v>
       </c>
       <c r="N10">
-        <v>4.064873</v>
+        <v>1.417854</v>
       </c>
       <c r="O10">
-        <v>0.05376453084748706</v>
+        <v>0.02009175736650936</v>
       </c>
       <c r="P10">
-        <v>0.05376453084748708</v>
+        <v>0.02009175736650936</v>
       </c>
       <c r="Q10">
-        <v>6.077127405554999</v>
+        <v>2.223710540698667</v>
       </c>
       <c r="R10">
-        <v>54.69414664999499</v>
+        <v>20.013394866288</v>
       </c>
       <c r="S10">
-        <v>0.05346578905269743</v>
+        <v>0.0190711740027841</v>
       </c>
       <c r="T10">
-        <v>0.05346578905269744</v>
+        <v>0.0190711740027841</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,13 +1086,13 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.485105</v>
+        <v>4.705090666666667</v>
       </c>
       <c r="H11">
-        <v>13.455315</v>
+        <v>14.115272</v>
       </c>
       <c r="I11">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341371</v>
       </c>
       <c r="J11">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341369</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.414567333333333</v>
+        <v>1.403935</v>
       </c>
       <c r="N11">
-        <v>4.243702</v>
+        <v>4.211805</v>
       </c>
       <c r="O11">
-        <v>0.05612983408990701</v>
+        <v>0.05968355284468708</v>
       </c>
       <c r="P11">
-        <v>0.05612983408990703</v>
+        <v>0.05968355284468708</v>
       </c>
       <c r="Q11">
-        <v>6.344483019569999</v>
+        <v>6.605641465106666</v>
       </c>
       <c r="R11">
-        <v>57.10034717612999</v>
+        <v>59.45077318596</v>
       </c>
       <c r="S11">
-        <v>0.05581794952376377</v>
+        <v>0.05665185979712727</v>
       </c>
       <c r="T11">
-        <v>0.05581794952376379</v>
+        <v>0.05665185979712726</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,10 +1148,10 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
         <v>21</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.485105</v>
+        <v>4.705090666666667</v>
       </c>
       <c r="H12">
-        <v>13.455315</v>
+        <v>14.115272</v>
       </c>
       <c r="I12">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341371</v>
       </c>
       <c r="J12">
-        <v>0.9944435152677689</v>
+        <v>0.9492038777341369</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.367415333333333</v>
+        <v>2.832734666666667</v>
       </c>
       <c r="N12">
-        <v>7.102246</v>
+        <v>8.498204000000001</v>
       </c>
       <c r="O12">
-        <v>0.09393870956200641</v>
+        <v>0.1204241429788253</v>
       </c>
       <c r="P12">
-        <v>0.09393870956200644</v>
+        <v>0.1204241429788253</v>
       </c>
       <c r="Q12">
-        <v>10.61810634861</v>
+        <v>13.32827344127645</v>
       </c>
       <c r="R12">
-        <v>95.56295713748999</v>
+        <v>119.954460971488</v>
       </c>
       <c r="S12">
-        <v>0.09341674055655963</v>
+        <v>0.1143070634883111</v>
       </c>
       <c r="T12">
-        <v>0.09341674055655966</v>
+        <v>0.1143070634883111</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,433 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.705090666666667</v>
+      </c>
+      <c r="H13">
+        <v>14.115272</v>
+      </c>
+      <c r="I13">
+        <v>0.9492038777341371</v>
+      </c>
+      <c r="J13">
+        <v>0.9492038777341369</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.8529486666666667</v>
+      </c>
+      <c r="N13">
+        <v>2.558846</v>
+      </c>
+      <c r="O13">
+        <v>0.03626023058104926</v>
+      </c>
+      <c r="P13">
+        <v>0.03626023058104925</v>
+      </c>
+      <c r="Q13">
+        <v>4.013200810679112</v>
+      </c>
+      <c r="R13">
+        <v>36.118807296112</v>
+      </c>
+      <c r="S13">
+        <v>0.0344183514750659</v>
+      </c>
+      <c r="T13">
+        <v>0.03441835147506589</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.09970966666666665</v>
+      </c>
+      <c r="H14">
+        <v>0.299129</v>
+      </c>
+      <c r="I14">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="J14">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.345575333333333</v>
+      </c>
+      <c r="N14">
+        <v>4.036726</v>
+      </c>
+      <c r="O14">
+        <v>0.05720258880468643</v>
+      </c>
+      <c r="P14">
+        <v>0.05720258880468642</v>
+      </c>
+      <c r="Q14">
+        <v>0.1341668679615556</v>
+      </c>
+      <c r="R14">
+        <v>1.207501811654</v>
+      </c>
+      <c r="S14">
+        <v>0.001150653215638157</v>
+      </c>
+      <c r="T14">
+        <v>0.001150653215638156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.09970966666666665</v>
+      </c>
+      <c r="H15">
+        <v>0.299129</v>
+      </c>
+      <c r="I15">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="J15">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.615168</v>
+      </c>
+      <c r="N15">
+        <v>49.84550400000001</v>
+      </c>
+      <c r="O15">
+        <v>0.7063377274242425</v>
+      </c>
+      <c r="P15">
+        <v>0.7063377274242425</v>
+      </c>
+      <c r="Q15">
+        <v>1.656692862890667</v>
+      </c>
+      <c r="R15">
+        <v>14.910235766016</v>
+      </c>
+      <c r="S15">
+        <v>0.01420826914254388</v>
+      </c>
+      <c r="T15">
+        <v>0.01420826914254388</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.09970966666666665</v>
+      </c>
+      <c r="H16">
+        <v>0.299129</v>
+      </c>
+      <c r="I16">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="J16">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.472618</v>
+      </c>
+      <c r="N16">
+        <v>1.417854</v>
+      </c>
+      <c r="O16">
+        <v>0.02009175736650936</v>
+      </c>
+      <c r="P16">
+        <v>0.02009175736650936</v>
+      </c>
+      <c r="Q16">
+        <v>0.04712458324066666</v>
+      </c>
+      <c r="R16">
+        <v>0.424121249166</v>
+      </c>
+      <c r="S16">
+        <v>0.000404153827732034</v>
+      </c>
+      <c r="T16">
+        <v>0.000404153827732034</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>4.485105</v>
-      </c>
-      <c r="H13">
-        <v>13.455315</v>
-      </c>
-      <c r="I13">
-        <v>0.9944435152677689</v>
-      </c>
-      <c r="J13">
-        <v>0.9944435152677689</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.87712</v>
-      </c>
-      <c r="N13">
-        <v>5.63136</v>
-      </c>
-      <c r="O13">
-        <v>0.07448385925791649</v>
-      </c>
-      <c r="P13">
-        <v>0.07448385925791652</v>
-      </c>
-      <c r="Q13">
-        <v>8.419080297599999</v>
-      </c>
-      <c r="R13">
-        <v>75.7717226784</v>
-      </c>
-      <c r="S13">
-        <v>0.07406999083115223</v>
-      </c>
-      <c r="T13">
-        <v>0.07406999083115226</v>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.09970966666666665</v>
+      </c>
+      <c r="H17">
+        <v>0.299129</v>
+      </c>
+      <c r="I17">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="J17">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.403935</v>
+      </c>
+      <c r="N17">
+        <v>4.211805</v>
+      </c>
+      <c r="O17">
+        <v>0.05968355284468708</v>
+      </c>
+      <c r="P17">
+        <v>0.05968355284468708</v>
+      </c>
+      <c r="Q17">
+        <v>0.1399858908716666</v>
+      </c>
+      <c r="R17">
+        <v>1.259873017845</v>
+      </c>
+      <c r="S17">
+        <v>0.001200558810999524</v>
+      </c>
+      <c r="T17">
+        <v>0.001200558810999524</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.09970966666666665</v>
+      </c>
+      <c r="H18">
+        <v>0.299129</v>
+      </c>
+      <c r="I18">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="J18">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.832734666666667</v>
+      </c>
+      <c r="N18">
+        <v>8.498204000000001</v>
+      </c>
+      <c r="O18">
+        <v>0.1204241429788253</v>
+      </c>
+      <c r="P18">
+        <v>0.1204241429788253</v>
+      </c>
+      <c r="Q18">
+        <v>0.2824510293684445</v>
+      </c>
+      <c r="R18">
+        <v>2.542059264316</v>
+      </c>
+      <c r="S18">
+        <v>0.002422380354710488</v>
+      </c>
+      <c r="T18">
+        <v>0.002422380354710487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.09970966666666665</v>
+      </c>
+      <c r="H19">
+        <v>0.299129</v>
+      </c>
+      <c r="I19">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="J19">
+        <v>0.02011540455917071</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.8529486666666667</v>
+      </c>
+      <c r="N19">
+        <v>2.558846</v>
+      </c>
+      <c r="O19">
+        <v>0.03626023058104926</v>
+      </c>
+      <c r="P19">
+        <v>0.03626023058104925</v>
+      </c>
+      <c r="Q19">
+        <v>0.0850472272371111</v>
+      </c>
+      <c r="R19">
+        <v>0.7654250451339999</v>
+      </c>
+      <c r="S19">
+        <v>0.0007293892075466194</v>
+      </c>
+      <c r="T19">
+        <v>0.0007293892075466192</v>
       </c>
     </row>
   </sheetData>
